--- a/result/result1_5.xlsx
+++ b/result/result1_5.xlsx
@@ -1,77 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2021-9-7\数学建模竞赛组委会、专家组工作\泰迪杯\泰迪杯2023\2023技能赛\A题\2023-11-1 2023年技能赛A题(周燕珠)\result\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7000"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>操作人员ID</t>
-  </si>
-  <si>
-    <t>工序</t>
-  </si>
-  <si>
-    <t>工作时长 (h)</t>
-  </si>
-  <si>
-    <t>完成案卷的数量</t>
-  </si>
-  <si>
-    <t>每个案卷的平均耗时 (h/卷)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,30 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -390,37 +420,1073 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="4" width="17.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="29" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>iUSER_ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>工序</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>完成案卷的数量</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>工作时长 (h)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>每个案卷的平均耗时 (h/卷)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PDF处理</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>968</v>
+      </c>
+      <c r="D2" t="n">
+        <v>89.288</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>8</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>自检全检</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>9</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.118</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>自检全检</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11579</v>
+      </c>
+      <c r="D7" t="n">
+        <v>201.314</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>3094</v>
+      </c>
+      <c r="D8" t="n">
+        <v>202.713</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="D10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>自检全检</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8339</v>
+      </c>
+      <c r="D11" t="n">
+        <v>206.18</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>自检全检</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>7224</v>
+      </c>
+      <c r="D13" t="n">
+        <v>201.018</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.028</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>925</v>
+      </c>
+      <c r="D14" t="n">
+        <v>61.502</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>379</v>
+      </c>
+      <c r="D15" t="n">
+        <v>60.42</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>PDF处理</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>31523</v>
+      </c>
+      <c r="D16" t="n">
+        <v>181.406</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>320</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10.346</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>20</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.403</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>自检全检</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>23</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.364</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4907</v>
+      </c>
+      <c r="D20" t="n">
+        <v>157.792</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.032</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1470</v>
+      </c>
+      <c r="D21" t="n">
+        <v>181.44</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>24</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>PDF处理</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>698</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.411</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>24</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>103</v>
+      </c>
+      <c r="D23" t="n">
+        <v>5.077</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>13</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.119</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>自检全检</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
+      <c r="D25" t="n">
+        <v>0.111</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>29</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2083</v>
+      </c>
+      <c r="D26" t="n">
+        <v>151.04</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>33</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2304</v>
+      </c>
+      <c r="D27" t="n">
+        <v>179.299</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>PDF处理</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>796</v>
+      </c>
+      <c r="D28" t="n">
+        <v>28.275</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1152</v>
+      </c>
+      <c r="D29" t="n">
+        <v>116.454</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.101</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>自检全检</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>6288</v>
+      </c>
+      <c r="D30" t="n">
+        <v>96.70699999999999</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>44</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2486</v>
+      </c>
+      <c r="D31" t="n">
+        <v>159.921</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>45</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1961</v>
+      </c>
+      <c r="D32" t="n">
+        <v>175.24</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.089</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>48</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3632</v>
+      </c>
+      <c r="D33" t="n">
+        <v>168.054</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>54</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>179</v>
+      </c>
+      <c r="D34" t="n">
+        <v>17.391</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.097</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>62</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3443</v>
+      </c>
+      <c r="D35" t="n">
+        <v>187.132</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>68</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2223</v>
+      </c>
+      <c r="D36" t="n">
+        <v>173.467</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>69</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1513</v>
+      </c>
+      <c r="D37" t="n">
+        <v>181.842</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>71</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3852</v>
+      </c>
+      <c r="D38" t="n">
+        <v>144.38</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>73</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3512</v>
+      </c>
+      <c r="D39" t="n">
+        <v>53.218</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>73</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1494</v>
+      </c>
+      <c r="D40" t="n">
+        <v>138.823</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>74</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1742</v>
+      </c>
+      <c r="D41" t="n">
+        <v>161.54</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>75</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2956</v>
+      </c>
+      <c r="D42" t="n">
+        <v>179.466</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>76</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>3829</v>
+      </c>
+      <c r="D43" t="n">
+        <v>139.266</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>78</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>100</v>
+      </c>
+      <c r="D44" t="n">
+        <v>4.079</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>85</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1970</v>
+      </c>
+      <c r="D45" t="n">
+        <v>181.605</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.092</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>87</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>200</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7.298</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>87</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>自检全检</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>516</v>
+      </c>
+      <c r="D47" t="n">
+        <v>29.074</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>89</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2858</v>
+      </c>
+      <c r="D48" t="n">
+        <v>147.119</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>90</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1197</v>
+      </c>
+      <c r="D49" t="n">
+        <v>156.835</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>91</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2966</v>
+      </c>
+      <c r="D50" t="n">
+        <v>142.589</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>93</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1446</v>
+      </c>
+      <c r="D51" t="n">
+        <v>162.62</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>94</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1098</v>
+      </c>
+      <c r="D52" t="n">
+        <v>33</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>95</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>2393</v>
+      </c>
+      <c r="D53" t="n">
+        <v>39.495</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>95</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>扫描</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>929</v>
+      </c>
+      <c r="D54" t="n">
+        <v>114.489</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.123</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>98</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>图像处理</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>3175</v>
+      </c>
+      <c r="D55" t="n">
+        <v>151.799</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.048</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>